--- a/TEL/TEL_Event/Sample/Import_ComputerChange.xlsx
+++ b/TEL/TEL_Event/Sample/Import_ComputerChange.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一加科技\客製開發\TEL\TEL_Event\Sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E5B53-4C36-4830-99E8-7BE4377BE827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11A4B54-F3DE-4C77-99D2-A0A62D0F8800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F9292AEA-AC40-4863-8A33-7B3ACD39EA2A}"/>
   </bookViews>
@@ -241,7 +241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +249,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,13 +574,13 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
@@ -583,7 +589,7 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -593,6 +599,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>